--- a/out/CE/falselink/Figori_algorithm_4.xlsx
+++ b/out/CE/falselink/Figori_algorithm_4.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.80245</v>
+        <v>0.80330000000000001</v>
       </c>
       <c r="B1">
-        <v>0.78125</v>
+        <v>0.77639999999999998</v>
       </c>
       <c r="C1">
-        <v>0.78839999999999999</v>
+        <v>0.78339999999999999</v>
       </c>
       <c r="D1">
-        <v>0.77564999999999995</v>
+        <v>0.78395000000000004</v>
       </c>
       <c r="E1">
-        <v>0.81289999999999996</v>
+        <v>0.77975000000000005</v>
       </c>
       <c r="F1">
-        <v>0.76275000000000004</v>
+        <v>0.78190000000000004</v>
       </c>
       <c r="G1">
-        <v>0.77915000000000001</v>
+        <v>0.78744999999999998</v>
       </c>
       <c r="H1">
-        <v>0.81059999999999999</v>
+        <v>0.80145</v>
       </c>
       <c r="I1">
-        <v>0.79520000000000002</v>
+        <v>0.78459999999999996</v>
       </c>
       <c r="J1">
-        <v>0.81474999999999997</v>
+        <v>0.79564999999999997</v>
       </c>
       <c r="K1">
-        <v>0.79595000000000005</v>
+        <v>0.79374999999999996</v>
       </c>
       <c r="L1">
-        <v>0.79744999999999999</v>
+        <v>0.79444999999999999</v>
       </c>
       <c r="M1">
-        <v>0.8044</v>
+        <v>0.77139999999999997</v>
       </c>
       <c r="N1">
-        <v>0.78559999999999997</v>
+        <v>0.79735</v>
       </c>
       <c r="O1">
-        <v>0.80674999999999997</v>
+        <v>0.78710000000000002</v>
       </c>
       <c r="P1">
-        <v>0.79635</v>
+        <v>0.80015000000000003</v>
       </c>
       <c r="Q1">
-        <v>0.78944999999999999</v>
+        <v>0.76905000000000001</v>
       </c>
       <c r="R1">
-        <v>0.80084999999999995</v>
+        <v>0.78664999999999996</v>
       </c>
       <c r="S1">
-        <v>0.80115000000000003</v>
+        <v>0.77964999999999995</v>
       </c>
       <c r="T1">
-        <v>0.80605000000000004</v>
+        <v>0.78544999999999998</v>
       </c>
       <c r="U1">
-        <v>0.78190000000000004</v>
+        <v>0.80330000000000001</v>
       </c>
       <c r="V1">
-        <v>0.79990000000000006</v>
+        <v>0.79849999999999999</v>
       </c>
       <c r="W1">
-        <v>0.79</v>
+        <v>0.80525000000000002</v>
       </c>
       <c r="X1">
-        <v>0.78885000000000005</v>
+        <v>0.77505000000000002</v>
       </c>
       <c r="Y1">
-        <v>0.79725000000000001</v>
+        <v>0.77475000000000005</v>
       </c>
       <c r="Z1">
-        <v>0.81389999999999996</v>
+        <v>0.79954999999999998</v>
       </c>
       <c r="AA1">
-        <v>0.78010000000000002</v>
+        <v>0.78369999999999995</v>
       </c>
       <c r="AB1">
-        <v>0.78490000000000004</v>
+        <v>0.79484999999999995</v>
       </c>
       <c r="AC1">
-        <v>0.80274999999999996</v>
+        <v>0.80745</v>
       </c>
       <c r="AD1">
-        <v>0.74590000000000001</v>
+        <v>0.77415</v>
       </c>
       <c r="AE1">
-        <v>0.76915</v>
+        <v>0.78374999999999995</v>
       </c>
       <c r="AF1">
-        <v>0.79764999999999997</v>
+        <v>0.80595000000000006</v>
       </c>
       <c r="AG1">
-        <v>0.79415000000000002</v>
+        <v>0.80489999999999995</v>
       </c>
       <c r="AH1">
-        <v>0.80935000000000001</v>
+        <v>0.78915000000000002</v>
       </c>
       <c r="AI1">
+        <v>0.79354999999999998</v>
+      </c>
+      <c r="AJ1">
+        <v>0.79474999999999996</v>
+      </c>
+      <c r="AK1">
+        <v>0.78105000000000002</v>
+      </c>
+      <c r="AL1">
+        <v>0.78295000000000003</v>
+      </c>
+      <c r="AM1">
+        <v>0.81705000000000005</v>
+      </c>
+      <c r="AN1">
+        <v>0.79910000000000003</v>
+      </c>
+      <c r="AO1">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="AP1">
+        <v>0.80159999999999998</v>
+      </c>
+      <c r="AQ1">
+        <v>0.80430000000000001</v>
+      </c>
+      <c r="AR1">
+        <v>0.78425</v>
+      </c>
+      <c r="AS1">
+        <v>0.80854999999999999</v>
+      </c>
+      <c r="AT1">
+        <v>0.78180000000000005</v>
+      </c>
+      <c r="AU1">
         <v>0.80584999999999996</v>
       </c>
-      <c r="AJ1">
-        <v>0.78569999999999995</v>
-      </c>
-      <c r="AK1">
-        <v>0.77910000000000001</v>
-      </c>
-      <c r="AL1">
-        <v>0.79185000000000005</v>
-      </c>
-      <c r="AM1">
-        <v>0.81874999999999998</v>
-      </c>
-      <c r="AN1">
-        <v>0.78334999999999999</v>
-      </c>
-      <c r="AO1">
-        <v>0.81984999999999997</v>
-      </c>
-      <c r="AP1">
-        <v>0.78515000000000001</v>
-      </c>
-      <c r="AQ1">
-        <v>0.80954999999999999</v>
-      </c>
-      <c r="AR1">
-        <v>0.79905000000000004</v>
-      </c>
-      <c r="AS1">
-        <v>0.81015000000000004</v>
-      </c>
-      <c r="AT1">
-        <v>0.78395000000000004</v>
-      </c>
-      <c r="AU1">
-        <v>0.79749999999999999</v>
-      </c>
       <c r="AV1">
-        <v>0.8105</v>
+        <v>0.82440000000000002</v>
       </c>
       <c r="AW1">
-        <v>0.81530000000000002</v>
+        <v>0.79210000000000003</v>
       </c>
       <c r="AX1">
-        <v>0.78454999999999997</v>
+        <v>0.80664999999999998</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.80010000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="B2">
-        <v>0.77170000000000005</v>
+        <v>0.76165000000000005</v>
       </c>
       <c r="C2">
-        <v>0.78425</v>
+        <v>0.77505000000000002</v>
       </c>
       <c r="D2">
-        <v>0.78044999999999998</v>
+        <v>0.77554999999999996</v>
       </c>
       <c r="E2">
-        <v>0.79720000000000002</v>
+        <v>0.77024999999999999</v>
       </c>
       <c r="F2">
-        <v>0.74795</v>
+        <v>0.77149999999999996</v>
       </c>
       <c r="G2">
-        <v>0.7732</v>
+        <v>0.79254999999999998</v>
       </c>
       <c r="H2">
-        <v>0.80720000000000003</v>
+        <v>0.79969999999999997</v>
       </c>
       <c r="I2">
-        <v>0.78700000000000003</v>
+        <v>0.7802</v>
       </c>
       <c r="J2">
-        <v>0.80020000000000002</v>
+        <v>0.78890000000000005</v>
       </c>
       <c r="K2">
-        <v>0.80195000000000005</v>
+        <v>0.80664999999999998</v>
       </c>
       <c r="L2">
-        <v>0.79464999999999997</v>
+        <v>0.77390000000000003</v>
       </c>
       <c r="M2">
-        <v>0.79764999999999997</v>
+        <v>0.75895000000000001</v>
       </c>
       <c r="N2">
-        <v>0.77195000000000003</v>
+        <v>0.78590000000000004</v>
       </c>
       <c r="O2">
-        <v>0.81845000000000001</v>
+        <v>0.78169999999999995</v>
       </c>
       <c r="P2">
-        <v>0.78585000000000005</v>
+        <v>0.81455</v>
       </c>
       <c r="Q2">
-        <v>0.77605000000000002</v>
+        <v>0.77364999999999995</v>
       </c>
       <c r="R2">
-        <v>0.78425</v>
+        <v>0.78969999999999996</v>
       </c>
       <c r="S2">
-        <v>0.79210000000000003</v>
+        <v>0.77644999999999997</v>
       </c>
       <c r="T2">
-        <v>0.78559999999999997</v>
+        <v>0.76195000000000002</v>
       </c>
       <c r="U2">
-        <v>0.78239999999999998</v>
+        <v>0.79784999999999995</v>
       </c>
       <c r="V2">
-        <v>0.79869999999999997</v>
+        <v>0.78974999999999995</v>
       </c>
       <c r="W2">
-        <v>0.78380000000000005</v>
+        <v>0.79144999999999999</v>
       </c>
       <c r="X2">
-        <v>0.77749999999999997</v>
+        <v>0.78129999999999999</v>
       </c>
       <c r="Y2">
-        <v>0.78890000000000005</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="Z2">
-        <v>0.80815000000000003</v>
+        <v>0.80420000000000003</v>
       </c>
       <c r="AA2">
-        <v>0.77864999999999995</v>
+        <v>0.78049999999999997</v>
       </c>
       <c r="AB2">
-        <v>0.76044999999999996</v>
+        <v>0.78790000000000004</v>
       </c>
       <c r="AC2">
-        <v>0.7823</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="AD2">
-        <v>0.72740000000000005</v>
+        <v>0.76939999999999997</v>
       </c>
       <c r="AE2">
-        <v>0.75995000000000001</v>
+        <v>0.76790000000000003</v>
       </c>
       <c r="AF2">
-        <v>0.7954</v>
+        <v>0.79330000000000001</v>
       </c>
       <c r="AG2">
-        <v>0.77654999999999996</v>
+        <v>0.79530000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.81240000000000001</v>
+        <v>0.78039999999999998</v>
       </c>
       <c r="AI2">
-        <v>0.79015000000000002</v>
+        <v>0.78234999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.77459999999999996</v>
+        <v>0.77490000000000003</v>
       </c>
       <c r="AK2">
-        <v>0.76224999999999998</v>
+        <v>0.76205000000000001</v>
       </c>
       <c r="AL2">
-        <v>0.76139999999999997</v>
+        <v>0.77475000000000005</v>
       </c>
       <c r="AM2">
-        <v>0.80115000000000003</v>
+        <v>0.8115</v>
       </c>
       <c r="AN2">
-        <v>0.77669999999999995</v>
+        <v>0.79610000000000003</v>
       </c>
       <c r="AO2">
-        <v>0.80300000000000005</v>
+        <v>0.80125000000000002</v>
       </c>
       <c r="AP2">
-        <v>0.77064999999999995</v>
+        <v>0.78754999999999997</v>
       </c>
       <c r="AQ2">
-        <v>0.80184999999999995</v>
+        <v>0.78835</v>
       </c>
       <c r="AR2">
-        <v>0.80389999999999995</v>
+        <v>0.78385000000000005</v>
       </c>
       <c r="AS2">
-        <v>0.81035000000000001</v>
+        <v>0.80969999999999998</v>
       </c>
       <c r="AT2">
-        <v>0.78044999999999998</v>
+        <v>0.77410000000000001</v>
       </c>
       <c r="AU2">
-        <v>0.79400000000000004</v>
+        <v>0.79584999999999995</v>
       </c>
       <c r="AV2">
-        <v>0.79454999999999998</v>
+        <v>0.81969999999999998</v>
       </c>
       <c r="AW2">
-        <v>0.80615000000000003</v>
+        <v>0.76829999999999998</v>
       </c>
       <c r="AX2">
-        <v>0.77215</v>
+        <v>0.78864999999999996</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.79074999999999995</v>
+        <v>0.74004999999999999</v>
       </c>
       <c r="B3">
-        <v>0.75649999999999995</v>
+        <v>0.74904999999999999</v>
       </c>
       <c r="C3">
-        <v>0.76819999999999999</v>
+        <v>0.76870000000000005</v>
       </c>
       <c r="D3">
-        <v>0.76014999999999999</v>
+        <v>0.76680000000000004</v>
       </c>
       <c r="E3">
-        <v>0.78234999999999999</v>
+        <v>0.74939999999999996</v>
       </c>
       <c r="F3">
-        <v>0.72955000000000003</v>
+        <v>0.75890000000000002</v>
       </c>
       <c r="G3">
-        <v>0.75234999999999996</v>
+        <v>0.76995000000000002</v>
       </c>
       <c r="H3">
-        <v>0.77864999999999995</v>
+        <v>0.77510000000000001</v>
       </c>
       <c r="I3">
-        <v>0.78225</v>
+        <v>0.76695000000000002</v>
       </c>
       <c r="J3">
-        <v>0.79444999999999999</v>
+        <v>0.77595000000000003</v>
       </c>
       <c r="K3">
-        <v>0.78859999999999997</v>
+        <v>0.79205000000000003</v>
       </c>
       <c r="L3">
+        <v>0.76565000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.74780000000000002</v>
+      </c>
+      <c r="N3">
+        <v>0.76775000000000004</v>
+      </c>
+      <c r="O3">
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="P3">
+        <v>0.80225000000000002</v>
+      </c>
+      <c r="Q3">
+        <v>0.77024999999999999</v>
+      </c>
+      <c r="R3">
+        <v>0.77995000000000003</v>
+      </c>
+      <c r="S3">
+        <v>0.76475000000000004</v>
+      </c>
+      <c r="T3">
+        <v>0.76214999999999999</v>
+      </c>
+      <c r="U3">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="V3">
+        <v>0.7823</v>
+      </c>
+      <c r="W3">
+        <v>0.77954999999999997</v>
+      </c>
+      <c r="X3">
+        <v>0.78015000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>0.75929999999999997</v>
+      </c>
+      <c r="Z3">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.7631</v>
+      </c>
+      <c r="AB3">
+        <v>0.78815000000000002</v>
+      </c>
+      <c r="AC3">
         <v>0.78559999999999997</v>
       </c>
-      <c r="M3">
-        <v>0.78785000000000005</v>
-      </c>
-      <c r="N3">
-        <v>0.74304999999999999</v>
-      </c>
-      <c r="O3">
-        <v>0.82215000000000005</v>
-      </c>
-      <c r="P3">
-        <v>0.77249999999999996</v>
-      </c>
-      <c r="Q3">
-        <v>0.76424999999999998</v>
-      </c>
-      <c r="R3">
-        <v>0.78754999999999997</v>
-      </c>
-      <c r="S3">
-        <v>0.78195000000000003</v>
-      </c>
-      <c r="T3">
-        <v>0.77190000000000003</v>
-      </c>
-      <c r="U3">
-        <v>0.78129999999999999</v>
-      </c>
-      <c r="V3">
-        <v>0.78520000000000001</v>
-      </c>
-      <c r="W3">
-        <v>0.77749999999999997</v>
-      </c>
-      <c r="X3">
-        <v>0.77864999999999995</v>
-      </c>
-      <c r="Y3">
-        <v>0.76239999999999997</v>
-      </c>
-      <c r="Z3">
-        <v>0.78205000000000002</v>
-      </c>
-      <c r="AA3">
+      <c r="AD3">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="AE3">
         <v>0.75414999999999999</v>
       </c>
-      <c r="AB3">
-        <v>0.75190000000000001</v>
-      </c>
-      <c r="AC3">
-        <v>0.76844999999999997</v>
-      </c>
-      <c r="AD3">
-        <v>0.71565000000000001</v>
-      </c>
-      <c r="AE3">
-        <v>0.75685000000000002</v>
-      </c>
       <c r="AF3">
-        <v>0.76134999999999997</v>
+        <v>0.78110000000000002</v>
       </c>
       <c r="AG3">
-        <v>0.76444999999999996</v>
+        <v>0.79635</v>
       </c>
       <c r="AH3">
-        <v>0.78844999999999998</v>
+        <v>0.77775000000000005</v>
       </c>
       <c r="AI3">
-        <v>0.78759999999999997</v>
+        <v>0.77849999999999997</v>
       </c>
       <c r="AJ3">
-        <v>0.78154999999999997</v>
+        <v>0.75700000000000001</v>
       </c>
       <c r="AK3">
-        <v>0.76205000000000001</v>
+        <v>0.74360000000000004</v>
       </c>
       <c r="AL3">
-        <v>0.76705000000000001</v>
+        <v>0.76910000000000001</v>
       </c>
       <c r="AM3">
-        <v>0.80249999999999999</v>
+        <v>0.79220000000000002</v>
       </c>
       <c r="AN3">
-        <v>0.76785000000000003</v>
+        <v>0.80245</v>
       </c>
       <c r="AO3">
-        <v>0.77390000000000003</v>
+        <v>0.79044999999999999</v>
       </c>
       <c r="AP3">
-        <v>0.75885000000000002</v>
+        <v>0.77825</v>
       </c>
       <c r="AQ3">
-        <v>0.78669999999999995</v>
+        <v>0.79564999999999997</v>
       </c>
       <c r="AR3">
-        <v>0.79305000000000003</v>
+        <v>0.76305000000000001</v>
       </c>
       <c r="AS3">
-        <v>0.80520000000000003</v>
+        <v>0.77354999999999996</v>
       </c>
       <c r="AT3">
-        <v>0.76090000000000002</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="AU3">
-        <v>0.78185000000000004</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="AV3">
-        <v>0.78234999999999999</v>
+        <v>0.80754999999999999</v>
       </c>
       <c r="AW3">
-        <v>0.78859999999999997</v>
+        <v>0.74904999999999999</v>
       </c>
       <c r="AX3">
-        <v>0.75409999999999999</v>
+        <v>0.77185000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.77059999999999995</v>
+        <v>0.70914999999999995</v>
       </c>
       <c r="B4">
-        <v>0.73545000000000005</v>
+        <v>0.73704999999999998</v>
       </c>
       <c r="C4">
-        <v>0.75395000000000001</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="D4">
-        <v>0.72950000000000004</v>
+        <v>0.76490000000000002</v>
       </c>
       <c r="E4">
-        <v>0.76644999999999996</v>
+        <v>0.73234999999999995</v>
       </c>
       <c r="F4">
-        <v>0.72989999999999999</v>
+        <v>0.74095</v>
       </c>
       <c r="G4">
-        <v>0.74145000000000005</v>
+        <v>0.74724999999999997</v>
       </c>
       <c r="H4">
-        <v>0.76070000000000004</v>
+        <v>0.76915</v>
       </c>
       <c r="I4">
+        <v>0.72704999999999997</v>
+      </c>
+      <c r="J4">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="K4">
+        <v>0.77085000000000004</v>
+      </c>
+      <c r="L4">
+        <v>0.74355000000000004</v>
+      </c>
+      <c r="M4">
+        <v>0.73580000000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.75419999999999998</v>
+      </c>
+      <c r="O4">
+        <v>0.76680000000000004</v>
+      </c>
+      <c r="P4">
         <v>0.77625</v>
       </c>
-      <c r="J4">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="K4">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="L4">
-        <v>0.75685000000000002</v>
-      </c>
-      <c r="M4">
-        <v>0.75895000000000001</v>
-      </c>
-      <c r="N4">
-        <v>0.73945000000000005</v>
-      </c>
-      <c r="O4">
-        <v>0.78795000000000004</v>
-      </c>
-      <c r="P4">
-        <v>0.74065000000000003</v>
-      </c>
       <c r="Q4">
-        <v>0.76505000000000001</v>
+        <v>0.74724999999999997</v>
       </c>
       <c r="R4">
-        <v>0.74495</v>
+        <v>0.77690000000000003</v>
       </c>
       <c r="S4">
-        <v>0.77559999999999996</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="T4">
-        <v>0.76195000000000002</v>
+        <v>0.73424999999999996</v>
       </c>
       <c r="U4">
-        <v>0.77590000000000003</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="V4">
-        <v>0.75119999999999998</v>
+        <v>0.75495000000000001</v>
       </c>
       <c r="W4">
-        <v>0.73140000000000005</v>
+        <v>0.76380000000000003</v>
       </c>
       <c r="X4">
-        <v>0.75865000000000005</v>
+        <v>0.74690000000000001</v>
       </c>
       <c r="Y4">
-        <v>0.73845000000000005</v>
+        <v>0.72735000000000005</v>
       </c>
       <c r="Z4">
-        <v>0.75814999999999999</v>
+        <v>0.74795</v>
       </c>
       <c r="AA4">
-        <v>0.74939999999999996</v>
+        <v>0.73509999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.73475000000000001</v>
+        <v>0.77810000000000001</v>
       </c>
       <c r="AC4">
-        <v>0.74619999999999997</v>
+        <v>0.78310000000000002</v>
       </c>
       <c r="AD4">
-        <v>0.71009999999999995</v>
+        <v>0.75609999999999999</v>
       </c>
       <c r="AE4">
-        <v>0.73885000000000001</v>
+        <v>0.73445000000000005</v>
       </c>
       <c r="AF4">
-        <v>0.74470000000000003</v>
+        <v>0.75149999999999995</v>
       </c>
       <c r="AG4">
-        <v>0.73665000000000003</v>
+        <v>0.74719999999999998</v>
       </c>
       <c r="AH4">
-        <v>0.78859999999999997</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="AI4">
-        <v>0.74929999999999997</v>
+        <v>0.76649999999999996</v>
       </c>
       <c r="AJ4">
-        <v>0.76385000000000003</v>
+        <v>0.73624999999999996</v>
       </c>
       <c r="AK4">
-        <v>0.72470000000000001</v>
+        <v>0.74504999999999999</v>
       </c>
       <c r="AL4">
-        <v>0.74455000000000005</v>
+        <v>0.74104999999999999</v>
       </c>
       <c r="AM4">
-        <v>0.78920000000000001</v>
+        <v>0.78464999999999996</v>
       </c>
       <c r="AN4">
-        <v>0.75144999999999995</v>
+        <v>0.76165000000000005</v>
       </c>
       <c r="AO4">
-        <v>0.77675000000000005</v>
+        <v>0.75934999999999997</v>
       </c>
       <c r="AP4">
-        <v>0.74644999999999995</v>
+        <v>0.7389</v>
       </c>
       <c r="AQ4">
-        <v>0.77259999999999995</v>
+        <v>0.76744999999999997</v>
       </c>
       <c r="AR4">
-        <v>0.74985000000000002</v>
+        <v>0.72650000000000003</v>
       </c>
       <c r="AS4">
-        <v>0.75934999999999997</v>
+        <v>0.74790000000000001</v>
       </c>
       <c r="AT4">
-        <v>0.74855000000000005</v>
+        <v>0.72940000000000005</v>
       </c>
       <c r="AU4">
-        <v>0.77359999999999995</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="AV4">
-        <v>0.76844999999999997</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="AW4">
-        <v>0.75544999999999995</v>
+        <v>0.72624999999999995</v>
       </c>
       <c r="AX4">
-        <v>0.75024999999999997</v>
+        <v>0.74750000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.74990000000000001</v>
+        <v>0.69835000000000003</v>
       </c>
       <c r="B5">
-        <v>0.69069999999999998</v>
+        <v>0.71350000000000002</v>
       </c>
       <c r="C5">
-        <v>0.73450000000000004</v>
+        <v>0.70279999999999998</v>
       </c>
       <c r="D5">
-        <v>0.72840000000000005</v>
+        <v>0.72424999999999995</v>
       </c>
       <c r="E5">
-        <v>0.75929999999999997</v>
+        <v>0.71184999999999998</v>
       </c>
       <c r="F5">
-        <v>0.71345000000000003</v>
+        <v>0.72240000000000004</v>
       </c>
       <c r="G5">
-        <v>0.70455000000000001</v>
+        <v>0.71689999999999998</v>
       </c>
       <c r="H5">
-        <v>0.72835000000000005</v>
+        <v>0.75319999999999998</v>
       </c>
       <c r="I5">
-        <v>0.74199999999999999</v>
+        <v>0.71130000000000004</v>
       </c>
       <c r="J5">
-        <v>0.74865000000000004</v>
+        <v>0.73175000000000001</v>
       </c>
       <c r="K5">
-        <v>0.73865000000000003</v>
+        <v>0.72604999999999997</v>
       </c>
       <c r="L5">
-        <v>0.73040000000000005</v>
+        <v>0.72745000000000004</v>
       </c>
       <c r="M5">
-        <v>0.73585</v>
+        <v>0.71079999999999999</v>
       </c>
       <c r="N5">
-        <v>0.71150000000000002</v>
+        <v>0.71955000000000002</v>
       </c>
       <c r="O5">
-        <v>0.75444999999999995</v>
+        <v>0.73534999999999995</v>
       </c>
       <c r="P5">
-        <v>0.72865000000000002</v>
+        <v>0.74919999999999998</v>
       </c>
       <c r="Q5">
-        <v>0.74370000000000003</v>
+        <v>0.72760000000000002</v>
       </c>
       <c r="R5">
-        <v>0.73109999999999997</v>
+        <v>0.74475000000000002</v>
       </c>
       <c r="S5">
-        <v>0.75249999999999995</v>
+        <v>0.7147</v>
       </c>
       <c r="T5">
-        <v>0.71489999999999998</v>
+        <v>0.71709999999999996</v>
       </c>
       <c r="U5">
-        <v>0.74934999999999996</v>
+        <v>0.75555000000000005</v>
       </c>
       <c r="V5">
-        <v>0.70755000000000001</v>
+        <v>0.73970000000000002</v>
       </c>
       <c r="W5">
-        <v>0.71645000000000003</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="X5">
-        <v>0.73419999999999996</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="Y5">
-        <v>0.70425000000000004</v>
+        <v>0.69945000000000002</v>
       </c>
       <c r="Z5">
-        <v>0.72224999999999995</v>
+        <v>0.74329999999999996</v>
       </c>
       <c r="AA5">
-        <v>0.70625000000000004</v>
+        <v>0.72804999999999997</v>
       </c>
       <c r="AB5">
-        <v>0.71860000000000002</v>
+        <v>0.75160000000000005</v>
       </c>
       <c r="AC5">
-        <v>0.70140000000000002</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="AD5">
-        <v>0.69094999999999995</v>
+        <v>0.70994999999999997</v>
       </c>
       <c r="AE5">
+        <v>0.73060000000000003</v>
+      </c>
+      <c r="AF5">
+        <v>0.70840000000000003</v>
+      </c>
+      <c r="AG5">
+        <v>0.70494999999999997</v>
+      </c>
+      <c r="AH5">
         <v>0.7157</v>
       </c>
-      <c r="AF5">
-        <v>0.71450000000000002</v>
-      </c>
-      <c r="AG5">
-        <v>0.73229999999999995</v>
-      </c>
-      <c r="AH5">
-        <v>0.77505000000000002</v>
-      </c>
       <c r="AI5">
-        <v>0.74329999999999996</v>
+        <v>0.72504999999999997</v>
       </c>
       <c r="AJ5">
-        <v>0.71560000000000001</v>
+        <v>0.71555000000000002</v>
       </c>
       <c r="AK5">
-        <v>0.71975</v>
+        <v>0.71984999999999999</v>
       </c>
       <c r="AL5">
-        <v>0.71779999999999999</v>
+        <v>0.75619999999999998</v>
       </c>
       <c r="AM5">
-        <v>0.74495</v>
+        <v>0.75819999999999999</v>
       </c>
       <c r="AN5">
-        <v>0.73719999999999997</v>
+        <v>0.72409999999999997</v>
       </c>
       <c r="AO5">
-        <v>0.75605</v>
+        <v>0.73045000000000004</v>
       </c>
       <c r="AP5">
-        <v>0.73839999999999995</v>
+        <v>0.72509999999999997</v>
       </c>
       <c r="AQ5">
-        <v>0.74409999999999998</v>
+        <v>0.74024999999999996</v>
       </c>
       <c r="AR5">
-        <v>0.74075000000000002</v>
+        <v>0.72304999999999997</v>
       </c>
       <c r="AS5">
-        <v>0.73350000000000004</v>
+        <v>0.74450000000000005</v>
       </c>
       <c r="AT5">
-        <v>0.71094999999999997</v>
+        <v>0.7127</v>
       </c>
       <c r="AU5">
-        <v>0.75375000000000003</v>
+        <v>0.73875000000000002</v>
       </c>
       <c r="AV5">
-        <v>0.73724999999999996</v>
+        <v>0.76065000000000005</v>
       </c>
       <c r="AW5">
-        <v>0.7097</v>
+        <v>0.72204999999999997</v>
       </c>
       <c r="AX5">
-        <v>0.72235000000000005</v>
+        <v>0.73204999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.72585</v>
+        <v>0.66735</v>
       </c>
       <c r="B6">
-        <v>0.70674999999999999</v>
+        <v>0.67084999999999995</v>
       </c>
       <c r="C6">
-        <v>0.72450000000000003</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="D6">
-        <v>0.69359999999999999</v>
+        <v>0.71445000000000003</v>
       </c>
       <c r="E6">
-        <v>0.73360000000000003</v>
+        <v>0.67969999999999997</v>
       </c>
       <c r="F6">
-        <v>0.71879999999999999</v>
+        <v>0.70874999999999999</v>
       </c>
       <c r="G6">
-        <v>0.67059999999999997</v>
+        <v>0.68759999999999999</v>
       </c>
       <c r="H6">
-        <v>0.71240000000000003</v>
+        <v>0.71704999999999997</v>
       </c>
       <c r="I6">
-        <v>0.69435000000000002</v>
+        <v>0.69489999999999996</v>
       </c>
       <c r="J6">
-        <v>0.74434999999999996</v>
+        <v>0.68640000000000001</v>
       </c>
       <c r="K6">
-        <v>0.71865000000000001</v>
+        <v>0.72250000000000003</v>
       </c>
       <c r="L6">
-        <v>0.7177</v>
+        <v>0.69755</v>
       </c>
       <c r="M6">
-        <v>0.71294999999999997</v>
+        <v>0.70945000000000003</v>
       </c>
       <c r="N6">
-        <v>0.69394999999999996</v>
+        <v>0.70245000000000002</v>
       </c>
       <c r="O6">
-        <v>0.74075000000000002</v>
+        <v>0.73504999999999998</v>
       </c>
       <c r="P6">
-        <v>0.69115000000000004</v>
+        <v>0.72509999999999997</v>
       </c>
       <c r="Q6">
-        <v>0.71130000000000004</v>
+        <v>0.71040000000000003</v>
       </c>
       <c r="R6">
-        <v>0.6925</v>
+        <v>0.71579999999999999</v>
       </c>
       <c r="S6">
-        <v>0.72294999999999998</v>
+        <v>0.68940000000000001</v>
       </c>
       <c r="T6">
-        <v>0.70994999999999997</v>
+        <v>0.68905000000000005</v>
       </c>
       <c r="U6">
-        <v>0.72019999999999995</v>
+        <v>0.72570000000000001</v>
       </c>
       <c r="V6">
-        <v>0.68574999999999997</v>
+        <v>0.71845000000000003</v>
       </c>
       <c r="W6">
-        <v>0.68389999999999995</v>
+        <v>0.70730000000000004</v>
       </c>
       <c r="X6">
-        <v>0.68889999999999996</v>
+        <v>0.68710000000000004</v>
       </c>
       <c r="Y6">
-        <v>0.68140000000000001</v>
+        <v>0.68764999999999998</v>
       </c>
       <c r="Z6">
-        <v>0.70209999999999995</v>
+        <v>0.71984999999999999</v>
       </c>
       <c r="AA6">
-        <v>0.68710000000000004</v>
+        <v>0.71435000000000004</v>
       </c>
       <c r="AB6">
-        <v>0.70084999999999997</v>
+        <v>0.68379999999999996</v>
       </c>
       <c r="AC6">
-        <v>0.68579999999999997</v>
+        <v>0.71825000000000006</v>
       </c>
       <c r="AD6">
-        <v>0.6774</v>
+        <v>0.68520000000000003</v>
       </c>
       <c r="AE6">
-        <v>0.68764999999999998</v>
+        <v>0.72209999999999996</v>
       </c>
       <c r="AF6">
-        <v>0.68664999999999998</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="AG6">
-        <v>0.71240000000000003</v>
+        <v>0.70479999999999998</v>
       </c>
       <c r="AH6">
-        <v>0.74124999999999996</v>
+        <v>0.71594999999999998</v>
       </c>
       <c r="AI6">
-        <v>0.71255000000000002</v>
+        <v>0.69</v>
       </c>
       <c r="AJ6">
-        <v>0.70445000000000002</v>
+        <v>0.69025000000000003</v>
       </c>
       <c r="AK6">
-        <v>0.69364999999999999</v>
+        <v>0.70935000000000004</v>
       </c>
       <c r="AL6">
-        <v>0.69355</v>
+        <v>0.71555000000000002</v>
       </c>
       <c r="AM6">
-        <v>0.72165000000000001</v>
+        <v>0.72524999999999995</v>
       </c>
       <c r="AN6">
-        <v>0.70609999999999995</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="AO6">
-        <v>0.71440000000000003</v>
+        <v>0.69504999999999995</v>
       </c>
       <c r="AP6">
-        <v>0.70189999999999997</v>
+        <v>0.68910000000000005</v>
       </c>
       <c r="AQ6">
-        <v>0.71460000000000001</v>
+        <v>0.6986</v>
       </c>
       <c r="AR6">
-        <v>0.7097</v>
+        <v>0.69440000000000002</v>
       </c>
       <c r="AS6">
-        <v>0.68679999999999997</v>
+        <v>0.70265</v>
       </c>
       <c r="AT6">
-        <v>0.69520000000000004</v>
+        <v>0.67705000000000004</v>
       </c>
       <c r="AU6">
-        <v>0.69789999999999996</v>
+        <v>0.69479999999999997</v>
       </c>
       <c r="AV6">
-        <v>0.73040000000000005</v>
+        <v>0.72814999999999996</v>
       </c>
       <c r="AW6">
-        <v>0.7087</v>
+        <v>0.68600000000000005</v>
       </c>
       <c r="AX6">
-        <v>0.71614999999999995</v>
+        <v>0.70784999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.6956</v>
+        <v>0.64354999999999996</v>
       </c>
       <c r="B7">
-        <v>0.66639999999999999</v>
+        <v>0.66359999999999997</v>
       </c>
       <c r="C7">
-        <v>0.68940000000000001</v>
+        <v>0.65075000000000005</v>
       </c>
       <c r="D7">
-        <v>0.68510000000000004</v>
+        <v>0.69789999999999996</v>
       </c>
       <c r="E7">
-        <v>0.70255000000000001</v>
+        <v>0.63019999999999998</v>
       </c>
       <c r="F7">
-        <v>0.7016</v>
+        <v>0.71499999999999997</v>
       </c>
       <c r="G7">
-        <v>0.65090000000000003</v>
+        <v>0.66054999999999997</v>
       </c>
       <c r="H7">
-        <v>0.67845</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="I7">
-        <v>0.6724</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="J7">
-        <v>0.70479999999999998</v>
+        <v>0.66769999999999996</v>
       </c>
       <c r="K7">
-        <v>0.68994999999999995</v>
+        <v>0.68240000000000001</v>
       </c>
       <c r="L7">
-        <v>0.68630000000000002</v>
+        <v>0.69064999999999999</v>
       </c>
       <c r="M7">
-        <v>0.69355</v>
+        <v>0.6653</v>
       </c>
       <c r="N7">
-        <v>0.69815000000000005</v>
+        <v>0.68174999999999997</v>
       </c>
       <c r="O7">
-        <v>0.71055000000000001</v>
+        <v>0.7056</v>
       </c>
       <c r="P7">
-        <v>0.69020000000000004</v>
+        <v>0.69335000000000002</v>
       </c>
       <c r="Q7">
-        <v>0.68815000000000004</v>
+        <v>0.6895</v>
       </c>
       <c r="R7">
-        <v>0.68354999999999999</v>
+        <v>0.66720000000000002</v>
       </c>
       <c r="S7">
-        <v>0.69604999999999995</v>
+        <v>0.68469999999999998</v>
       </c>
       <c r="T7">
-        <v>0.68030000000000002</v>
+        <v>0.66090000000000004</v>
       </c>
       <c r="U7">
-        <v>0.72270000000000001</v>
+        <v>0.6966</v>
       </c>
       <c r="V7">
-        <v>0.66205000000000003</v>
+        <v>0.69869999999999999</v>
       </c>
       <c r="W7">
-        <v>0.65500000000000003</v>
+        <v>0.71094999999999997</v>
       </c>
       <c r="X7">
-        <v>0.67749999999999999</v>
+        <v>0.66659999999999997</v>
       </c>
       <c r="Y7">
-        <v>0.66454999999999997</v>
+        <v>0.66125</v>
       </c>
       <c r="Z7">
-        <v>0.68274999999999997</v>
+        <v>0.69764999999999999</v>
       </c>
       <c r="AA7">
-        <v>0.67120000000000002</v>
+        <v>0.68754999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.69294999999999995</v>
+        <v>0.66239999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.65259999999999996</v>
+        <v>0.71404999999999996</v>
       </c>
       <c r="AD7">
-        <v>0.65195000000000003</v>
+        <v>0.64810000000000001</v>
       </c>
       <c r="AE7">
-        <v>0.66869999999999996</v>
+        <v>0.70015000000000005</v>
       </c>
       <c r="AF7">
-        <v>0.66349999999999998</v>
+        <v>0.65205000000000002</v>
       </c>
       <c r="AG7">
-        <v>0.66890000000000005</v>
+        <v>0.68945000000000001</v>
       </c>
       <c r="AH7">
-        <v>0.71504999999999996</v>
+        <v>0.69584999999999997</v>
       </c>
       <c r="AI7">
-        <v>0.70889999999999997</v>
+        <v>0.66479999999999995</v>
       </c>
       <c r="AJ7">
-        <v>0.68154999999999999</v>
+        <v>0.6673</v>
       </c>
       <c r="AK7">
-        <v>0.67025000000000001</v>
+        <v>0.69415000000000004</v>
       </c>
       <c r="AL7">
-        <v>0.68959999999999999</v>
+        <v>0.68764999999999998</v>
       </c>
       <c r="AM7">
-        <v>0.69689999999999996</v>
+        <v>0.7097</v>
       </c>
       <c r="AN7">
-        <v>0.67364999999999997</v>
+        <v>0.63465000000000005</v>
       </c>
       <c r="AO7">
-        <v>0.67390000000000005</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="AP7">
-        <v>0.68484999999999996</v>
+        <v>0.6673</v>
       </c>
       <c r="AQ7">
-        <v>0.68969999999999998</v>
+        <v>0.68500000000000005</v>
       </c>
       <c r="AR7">
-        <v>0.68489999999999995</v>
+        <v>0.66344999999999998</v>
       </c>
       <c r="AS7">
-        <v>0.66120000000000001</v>
+        <v>0.67954999999999999</v>
       </c>
       <c r="AT7">
-        <v>0.68910000000000005</v>
+        <v>0.65925</v>
       </c>
       <c r="AU7">
-        <v>0.67784999999999995</v>
+        <v>0.67164999999999997</v>
       </c>
       <c r="AV7">
-        <v>0.71174999999999999</v>
+        <v>0.69864999999999999</v>
       </c>
       <c r="AW7">
-        <v>0.68079999999999996</v>
+        <v>0.65934999999999999</v>
       </c>
       <c r="AX7">
-        <v>0.68920000000000003</v>
+        <v>0.68620000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.68745000000000001</v>
+        <v>0.64080000000000004</v>
       </c>
       <c r="B8">
-        <v>0.64744999999999997</v>
+        <v>0.64190000000000003</v>
       </c>
       <c r="C8">
-        <v>0.69625000000000004</v>
+        <v>0.65029999999999999</v>
       </c>
       <c r="D8">
-        <v>0.67254999999999998</v>
+        <v>0.66554999999999997</v>
       </c>
       <c r="E8">
-        <v>0.67164999999999997</v>
+        <v>0.61304999999999998</v>
       </c>
       <c r="F8">
-        <v>0.65024999999999999</v>
+        <v>0.68415000000000004</v>
       </c>
       <c r="G8">
-        <v>0.64085000000000003</v>
+        <v>0.66405000000000003</v>
       </c>
       <c r="H8">
-        <v>0.65169999999999995</v>
+        <v>0.67344999999999999</v>
       </c>
       <c r="I8">
-        <v>0.67295000000000005</v>
+        <v>0.64624999999999999</v>
       </c>
       <c r="J8">
-        <v>0.67495000000000005</v>
+        <v>0.64595000000000002</v>
       </c>
       <c r="K8">
-        <v>0.67620000000000002</v>
+        <v>0.66685000000000005</v>
       </c>
       <c r="L8">
-        <v>0.66600000000000004</v>
+        <v>0.67330000000000001</v>
       </c>
       <c r="M8">
-        <v>0.67344999999999999</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="N8">
-        <v>0.68759999999999999</v>
+        <v>0.68045</v>
       </c>
       <c r="O8">
-        <v>0.68364999999999998</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="P8">
-        <v>0.67044999999999999</v>
+        <v>0.66335</v>
       </c>
       <c r="Q8">
-        <v>0.66400000000000003</v>
+        <v>0.68084999999999996</v>
       </c>
       <c r="R8">
-        <v>0.66595000000000004</v>
+        <v>0.66825000000000001</v>
       </c>
       <c r="S8">
-        <v>0.68464999999999998</v>
+        <v>0.68059999999999998</v>
       </c>
       <c r="T8">
-        <v>0.66259999999999997</v>
+        <v>0.66649999999999998</v>
       </c>
       <c r="U8">
-        <v>0.68679999999999997</v>
+        <v>0.68325000000000002</v>
       </c>
       <c r="V8">
-        <v>0.67984999999999995</v>
+        <v>0.68205000000000005</v>
       </c>
       <c r="W8">
-        <v>0.64380000000000004</v>
+        <v>0.6976</v>
       </c>
       <c r="X8">
-        <v>0.65669999999999995</v>
+        <v>0.65234999999999999</v>
       </c>
       <c r="Y8">
-        <v>0.65229999999999999</v>
+        <v>0.63795000000000002</v>
       </c>
       <c r="Z8">
-        <v>0.66415000000000002</v>
+        <v>0.67130000000000001</v>
       </c>
       <c r="AA8">
-        <v>0.64864999999999995</v>
+        <v>0.68105000000000004</v>
       </c>
       <c r="AB8">
-        <v>0.68669999999999998</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="AC8">
-        <v>0.67574999999999996</v>
+        <v>0.69320000000000004</v>
       </c>
       <c r="AD8">
-        <v>0.6472</v>
+        <v>0.62229999999999996</v>
       </c>
       <c r="AE8">
-        <v>0.65464999999999995</v>
+        <v>0.67689999999999995</v>
       </c>
       <c r="AF8">
-        <v>0.64090000000000003</v>
+        <v>0.62585000000000002</v>
       </c>
       <c r="AG8">
-        <v>0.65410000000000001</v>
+        <v>0.66815000000000002</v>
       </c>
       <c r="AH8">
-        <v>0.6774</v>
+        <v>0.68030000000000002</v>
       </c>
       <c r="AI8">
-        <v>0.70350000000000001</v>
+        <v>0.67490000000000006</v>
       </c>
       <c r="AJ8">
-        <v>0.68054999999999999</v>
+        <v>0.65190000000000003</v>
       </c>
       <c r="AK8">
-        <v>0.67284999999999995</v>
+        <v>0.67579999999999996</v>
       </c>
       <c r="AL8">
-        <v>0.67415000000000003</v>
+        <v>0.65125</v>
       </c>
       <c r="AM8">
-        <v>0.67464999999999997</v>
+        <v>0.68084999999999996</v>
       </c>
       <c r="AN8">
-        <v>0.66674999999999995</v>
+        <v>0.64785000000000004</v>
       </c>
       <c r="AO8">
-        <v>0.65195000000000003</v>
+        <v>0.68945000000000001</v>
       </c>
       <c r="AP8">
-        <v>0.64985000000000004</v>
+        <v>0.65959999999999996</v>
       </c>
       <c r="AQ8">
-        <v>0.68240000000000001</v>
+        <v>0.67754999999999999</v>
       </c>
       <c r="AR8">
-        <v>0.67574999999999996</v>
+        <v>0.63859999999999995</v>
       </c>
       <c r="AS8">
-        <v>0.64810000000000001</v>
+        <v>0.66644999999999999</v>
       </c>
       <c r="AT8">
-        <v>0.68894999999999995</v>
+        <v>0.65210000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.6401</v>
+        <v>0.63639999999999997</v>
       </c>
       <c r="AV8">
-        <v>0.72304999999999997</v>
+        <v>0.68969999999999998</v>
       </c>
       <c r="AW8">
-        <v>0.65854999999999997</v>
+        <v>0.65585000000000004</v>
       </c>
       <c r="AX8">
-        <v>0.67215000000000003</v>
+        <v>0.67915000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.67274999999999996</v>
+        <v>0.62895000000000001</v>
       </c>
       <c r="B9">
-        <v>0.63200000000000001</v>
+        <v>0.63905000000000001</v>
       </c>
       <c r="C9">
-        <v>0.67574999999999996</v>
+        <v>0.62870000000000004</v>
       </c>
       <c r="D9">
-        <v>0.63080000000000003</v>
+        <v>0.65664999999999996</v>
       </c>
       <c r="E9">
-        <v>0.64385000000000003</v>
+        <v>0.59470000000000001</v>
       </c>
       <c r="F9">
-        <v>0.63790000000000002</v>
+        <v>0.6633</v>
       </c>
       <c r="G9">
-        <v>0.62839999999999996</v>
+        <v>0.64024999999999999</v>
       </c>
       <c r="H9">
-        <v>0.64970000000000006</v>
+        <v>0.66869999999999996</v>
       </c>
       <c r="I9">
-        <v>0.64675000000000005</v>
+        <v>0.62749999999999995</v>
       </c>
       <c r="J9">
-        <v>0.66725000000000001</v>
+        <v>0.63839999999999997</v>
       </c>
       <c r="K9">
-        <v>0.66044999999999998</v>
+        <v>0.64664999999999995</v>
       </c>
       <c r="L9">
-        <v>0.66110000000000002</v>
+        <v>0.64939999999999998</v>
       </c>
       <c r="M9">
-        <v>0.64939999999999998</v>
+        <v>0.65144999999999997</v>
       </c>
       <c r="N9">
-        <v>0.68054999999999999</v>
+        <v>0.66395000000000004</v>
       </c>
       <c r="O9">
-        <v>0.64905000000000002</v>
+        <v>0.67754999999999999</v>
       </c>
       <c r="P9">
-        <v>0.65505000000000002</v>
+        <v>0.67144999999999999</v>
       </c>
       <c r="Q9">
-        <v>0.66869999999999996</v>
+        <v>0.65</v>
       </c>
       <c r="R9">
-        <v>0.64754999999999996</v>
+        <v>0.65920000000000001</v>
       </c>
       <c r="S9">
-        <v>0.67164999999999997</v>
+        <v>0.63944999999999996</v>
       </c>
       <c r="T9">
-        <v>0.66485000000000005</v>
+        <v>0.66020000000000001</v>
       </c>
       <c r="U9">
-        <v>0.69350000000000001</v>
+        <v>0.65325</v>
       </c>
       <c r="V9">
-        <v>0.66225000000000001</v>
+        <v>0.65354999999999996</v>
       </c>
       <c r="W9">
-        <v>0.62580000000000002</v>
+        <v>0.68489999999999995</v>
       </c>
       <c r="X9">
-        <v>0.63675000000000004</v>
+        <v>0.62465000000000004</v>
       </c>
       <c r="Y9">
-        <v>0.64105000000000001</v>
+        <v>0.6361</v>
       </c>
       <c r="Z9">
-        <v>0.67754999999999999</v>
+        <v>0.66585000000000005</v>
       </c>
       <c r="AA9">
-        <v>0.65554999999999997</v>
+        <v>0.65934999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.69325000000000003</v>
+        <v>0.62695000000000001</v>
       </c>
       <c r="AC9">
-        <v>0.66954999999999998</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="AD9">
-        <v>0.65480000000000005</v>
+        <v>0.60124999999999995</v>
       </c>
       <c r="AE9">
-        <v>0.65354999999999996</v>
+        <v>0.67415000000000003</v>
       </c>
       <c r="AF9">
-        <v>0.65764999999999996</v>
+        <v>0.62370000000000003</v>
       </c>
       <c r="AG9">
-        <v>0.65725</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="AH9">
-        <v>0.6673</v>
+        <v>0.6694</v>
       </c>
       <c r="AI9">
-        <v>0.69225000000000003</v>
+        <v>0.65620000000000001</v>
       </c>
       <c r="AJ9">
-        <v>0.66700000000000004</v>
+        <v>0.62970000000000004</v>
       </c>
       <c r="AK9">
-        <v>0.65559999999999996</v>
+        <v>0.65034999999999998</v>
       </c>
       <c r="AL9">
-        <v>0.66379999999999995</v>
+        <v>0.64639999999999997</v>
       </c>
       <c r="AM9">
-        <v>0.67749999999999999</v>
+        <v>0.66290000000000004</v>
       </c>
       <c r="AN9">
-        <v>0.66874999999999996</v>
+        <v>0.64634999999999998</v>
       </c>
       <c r="AO9">
-        <v>0.62905</v>
+        <v>0.65905000000000002</v>
       </c>
       <c r="AP9">
-        <v>0.65839999999999999</v>
+        <v>0.65749999999999997</v>
       </c>
       <c r="AQ9">
-        <v>0.66564999999999996</v>
+        <v>0.65790000000000004</v>
       </c>
       <c r="AR9">
-        <v>0.66795000000000004</v>
+        <v>0.62819999999999998</v>
       </c>
       <c r="AS9">
-        <v>0.63234999999999997</v>
+        <v>0.65690000000000004</v>
       </c>
       <c r="AT9">
-        <v>0.69325000000000003</v>
+        <v>0.65990000000000004</v>
       </c>
       <c r="AU9">
-        <v>0.6391</v>
+        <v>0.58160000000000001</v>
       </c>
       <c r="AV9">
-        <v>0.68899999999999995</v>
+        <v>0.66339999999999999</v>
       </c>
       <c r="AW9">
-        <v>0.64810000000000001</v>
+        <v>0.65849999999999997</v>
       </c>
       <c r="AX9">
-        <v>0.66154999999999997</v>
+        <v>0.65575000000000006</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.66485000000000005</v>
+        <v>0.62224999999999997</v>
       </c>
       <c r="B10">
-        <v>0.63154999999999994</v>
+        <v>0.63039999999999996</v>
       </c>
       <c r="C10">
-        <v>0.64385000000000003</v>
+        <v>0.61524999999999996</v>
       </c>
       <c r="D10">
-        <v>0.61909999999999998</v>
+        <v>0.64090000000000003</v>
       </c>
       <c r="E10">
-        <v>0.64129999999999998</v>
+        <v>0.60135000000000005</v>
       </c>
       <c r="F10">
-        <v>0.63565000000000005</v>
+        <v>0.68079999999999996</v>
       </c>
       <c r="G10">
-        <v>0.61560000000000004</v>
+        <v>0.62814999999999999</v>
       </c>
       <c r="H10">
-        <v>0.63205</v>
+        <v>0.64890000000000003</v>
       </c>
       <c r="I10">
-        <v>0.65649999999999997</v>
+        <v>0.61370000000000002</v>
       </c>
       <c r="J10">
-        <v>0.66390000000000005</v>
+        <v>0.63785000000000003</v>
       </c>
       <c r="K10">
-        <v>0.64664999999999995</v>
+        <v>0.61955000000000005</v>
       </c>
       <c r="L10">
-        <v>0.64470000000000005</v>
+        <v>0.64739999999999998</v>
       </c>
       <c r="M10">
-        <v>0.62624999999999997</v>
+        <v>0.62709999999999999</v>
       </c>
       <c r="N10">
-        <v>0.66669999999999996</v>
+        <v>0.65974999999999995</v>
       </c>
       <c r="O10">
-        <v>0.64634999999999998</v>
+        <v>0.68594999999999995</v>
       </c>
       <c r="P10">
-        <v>0.65600000000000003</v>
+        <v>0.65049999999999997</v>
       </c>
       <c r="Q10">
-        <v>0.64495000000000002</v>
+        <v>0.64775000000000005</v>
       </c>
       <c r="R10">
-        <v>0.61709999999999998</v>
+        <v>0.65754999999999997</v>
       </c>
       <c r="S10">
-        <v>0.66695000000000004</v>
+        <v>0.63060000000000005</v>
       </c>
       <c r="T10">
-        <v>0.6764</v>
+        <v>0.63605</v>
       </c>
       <c r="U10">
-        <v>0.69410000000000005</v>
+        <v>0.65064999999999995</v>
       </c>
       <c r="V10">
-        <v>0.65215000000000001</v>
+        <v>0.62744999999999995</v>
       </c>
       <c r="W10">
-        <v>0.60585</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="X10">
-        <v>0.61819999999999997</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="Y10">
-        <v>0.63624999999999998</v>
+        <v>0.60435000000000005</v>
       </c>
       <c r="Z10">
-        <v>0.66034999999999999</v>
+        <v>0.65985000000000005</v>
       </c>
       <c r="AA10">
-        <v>0.64305000000000001</v>
+        <v>0.66854999999999998</v>
       </c>
       <c r="AB10">
-        <v>0.67030000000000001</v>
+        <v>0.60614999999999997</v>
       </c>
       <c r="AC10">
-        <v>0.67664999999999997</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="AD10">
-        <v>0.6381</v>
+        <v>0.58955000000000002</v>
       </c>
       <c r="AE10">
         <v>0.65664999999999996</v>
       </c>
       <c r="AF10">
-        <v>0.65869999999999995</v>
+        <v>0.61824999999999997</v>
       </c>
       <c r="AG10">
-        <v>0.65315000000000001</v>
+        <v>0.64864999999999995</v>
       </c>
       <c r="AH10">
-        <v>0.65015000000000001</v>
+        <v>0.65500000000000003</v>
       </c>
       <c r="AI10">
-        <v>0.67779999999999996</v>
+        <v>0.65354999999999996</v>
       </c>
       <c r="AJ10">
-        <v>0.66074999999999995</v>
+        <v>0.63354999999999995</v>
       </c>
       <c r="AK10">
-        <v>0.63995000000000002</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="AL10">
-        <v>0.63365000000000005</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="AM10">
-        <v>0.65880000000000005</v>
+        <v>0.64615</v>
       </c>
       <c r="AN10">
-        <v>0.64115</v>
+        <v>0.64429999999999998</v>
       </c>
       <c r="AO10">
-        <v>0.61165000000000003</v>
+        <v>0.63734999999999997</v>
       </c>
       <c r="AP10">
-        <v>0.66405000000000003</v>
+        <v>0.66249999999999998</v>
       </c>
       <c r="AQ10">
-        <v>0.67689999999999995</v>
+        <v>0.66644999999999999</v>
       </c>
       <c r="AR10">
-        <v>0.63649999999999995</v>
+        <v>0.62019999999999997</v>
       </c>
       <c r="AS10">
-        <v>0.63580000000000003</v>
+        <v>0.64875000000000005</v>
       </c>
       <c r="AT10">
-        <v>0.65795000000000003</v>
+        <v>0.64680000000000004</v>
       </c>
       <c r="AU10">
-        <v>0.62719999999999998</v>
+        <v>0.56605000000000005</v>
       </c>
       <c r="AV10">
-        <v>0.69825000000000004</v>
+        <v>0.65549999999999997</v>
       </c>
       <c r="AW10">
-        <v>0.62509999999999999</v>
+        <v>0.63844999999999996</v>
       </c>
       <c r="AX10">
-        <v>0.67315000000000003</v>
+        <v>0.66215000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.66405000000000003</v>
+        <v>0.61985000000000001</v>
       </c>
       <c r="B11">
+        <v>0.60940000000000005</v>
+      </c>
+      <c r="C11">
+        <v>0.60870000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="F11">
+        <v>0.65774999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.62675000000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.63205</v>
+      </c>
+      <c r="I11">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="J11">
+        <v>0.62350000000000005</v>
+      </c>
+      <c r="K11">
+        <v>0.62065000000000003</v>
+      </c>
+      <c r="L11">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="M11">
+        <v>0.61865000000000003</v>
+      </c>
+      <c r="N11">
+        <v>0.68005000000000004</v>
+      </c>
+      <c r="O11">
+        <v>0.67849999999999999</v>
+      </c>
+      <c r="P11">
+        <v>0.64119999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.62990000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.66895000000000004</v>
+      </c>
+      <c r="S11">
+        <v>0.6069</v>
+      </c>
+      <c r="T11">
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="U11">
+        <v>0.63565000000000005</v>
+      </c>
+      <c r="V11">
+        <v>0.61670000000000003</v>
+      </c>
+      <c r="W11">
+        <v>0.67174999999999996</v>
+      </c>
+      <c r="X11">
+        <v>0.60714999999999997</v>
+      </c>
+      <c r="Y11">
         <v>0.61495</v>
       </c>
-      <c r="C11">
-        <v>0.62485000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.61380000000000001</v>
-      </c>
-      <c r="E11">
-        <v>0.64259999999999995</v>
-      </c>
-      <c r="F11">
-        <v>0.61475000000000002</v>
-      </c>
-      <c r="G11">
-        <v>0.59465000000000001</v>
-      </c>
-      <c r="H11">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="I11">
-        <v>0.63939999999999997</v>
-      </c>
-      <c r="J11">
-        <v>0.63195000000000001</v>
-      </c>
-      <c r="K11">
-        <v>0.63765000000000005</v>
-      </c>
-      <c r="L11">
-        <v>0.63970000000000005</v>
-      </c>
-      <c r="M11">
+      <c r="Z11">
+        <v>0.63405</v>
+      </c>
+      <c r="AA11">
+        <v>0.65795000000000003</v>
+      </c>
+      <c r="AB11">
+        <v>0.60245000000000004</v>
+      </c>
+      <c r="AC11">
+        <v>0.63105</v>
+      </c>
+      <c r="AD11">
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="AE11">
+        <v>0.65505000000000002</v>
+      </c>
+      <c r="AF11">
+        <v>0.59814999999999996</v>
+      </c>
+      <c r="AG11">
+        <v>0.61655000000000004</v>
+      </c>
+      <c r="AH11">
         <v>0.64180000000000004</v>
       </c>
-      <c r="N11">
-        <v>0.66925000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.64385000000000003</v>
-      </c>
-      <c r="P11">
-        <v>0.63660000000000005</v>
-      </c>
-      <c r="Q11">
-        <v>0.63005</v>
-      </c>
-      <c r="R11">
-        <v>0.63949999999999996</v>
-      </c>
-      <c r="S11">
-        <v>0.64359999999999995</v>
-      </c>
-      <c r="T11">
-        <v>0.63314999999999999</v>
-      </c>
-      <c r="U11">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="V11">
-        <v>0.63380000000000003</v>
-      </c>
-      <c r="W11">
-        <v>0.60509999999999997</v>
-      </c>
-      <c r="X11">
-        <v>0.60270000000000001</v>
-      </c>
-      <c r="Y11">
-        <v>0.63375000000000004</v>
-      </c>
-      <c r="Z11">
-        <v>0.63939999999999997</v>
-      </c>
-      <c r="AA11">
-        <v>0.63665000000000005</v>
-      </c>
-      <c r="AB11">
-        <v>0.67925000000000002</v>
-      </c>
-      <c r="AC11">
-        <v>0.66359999999999997</v>
-      </c>
-      <c r="AD11">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="AE11">
-        <v>0.64629999999999999</v>
-      </c>
-      <c r="AF11">
-        <v>0.66649999999999998</v>
-      </c>
-      <c r="AG11">
-        <v>0.63870000000000005</v>
-      </c>
-      <c r="AH11">
-        <v>0.64239999999999997</v>
-      </c>
       <c r="AI11">
-        <v>0.64070000000000005</v>
+        <v>0.66195000000000004</v>
       </c>
       <c r="AJ11">
-        <v>0.64544999999999997</v>
+        <v>0.62114999999999998</v>
       </c>
       <c r="AK11">
-        <v>0.64</v>
+        <v>0.6603</v>
       </c>
       <c r="AL11">
-        <v>0.62475000000000003</v>
+        <v>0.60629999999999995</v>
       </c>
       <c r="AM11">
-        <v>0.62680000000000002</v>
+        <v>0.62939999999999996</v>
       </c>
       <c r="AN11">
-        <v>0.62334999999999996</v>
+        <v>0.63244999999999996</v>
       </c>
       <c r="AO11">
-        <v>0.61750000000000005</v>
+        <v>0.62270000000000003</v>
       </c>
       <c r="AP11">
-        <v>0.63439999999999996</v>
+        <v>0.63134999999999997</v>
       </c>
       <c r="AQ11">
-        <v>0.64624999999999999</v>
+        <v>0.63534999999999997</v>
       </c>
       <c r="AR11">
-        <v>0.63265000000000005</v>
+        <v>0.63595000000000002</v>
       </c>
       <c r="AS11">
-        <v>0.63200000000000001</v>
+        <v>0.65039999999999998</v>
       </c>
       <c r="AT11">
-        <v>0.66910000000000003</v>
+        <v>0.63414999999999999</v>
       </c>
       <c r="AU11">
-        <v>0.62719999999999998</v>
+        <v>0.56615000000000004</v>
       </c>
       <c r="AV11">
-        <v>0.69855</v>
+        <v>0.63775000000000004</v>
       </c>
       <c r="AW11">
-        <v>0.60365000000000002</v>
+        <v>0.627</v>
       </c>
       <c r="AX11">
-        <v>0.67305000000000004</v>
+        <v>0.66305000000000003</v>
       </c>
     </row>
   </sheetData>
